--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_2_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_2_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05997540925247757</v>
+        <v>0.2148609219202342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05997540925247757</v>
+        <v>0.2148609219202342</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.690991264497409</v>
+        <v>6.409153644773141</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.24257300656848635, 13.624555535563305]</t>
+          <t>[-3.1775345670923985, 15.99584185663868]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05820853229968748</v>
+        <v>0.1848772208142804</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05820853229968748</v>
+        <v>0.1848772208142804</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.283052855520156</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.817684702318773, 0.25157899127846184]</t>
+          <t>[-4.10702703262089, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.09912207225507053</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09912207225507053</v>
+        <v>0.5235608107259564</v>
       </c>
       <c r="T2" t="n">
-        <v>15.0968613498699</v>
+        <v>15.41130532158703</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11.274338326885726, 18.91938437285407]</t>
+          <t>[10.314964314850542, 20.507646328323517]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.013811505387821e-10</v>
+        <v>2.290247180791738e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.013811505387821e-10</v>
+        <v>2.290247180791738e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.568048048048059</v>
+        <v>3.577537537537552</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8956956956956983</v>
+        <v>-7.630570570570603</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.03179179179182</v>
+        <v>14.78564564564571</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04524179511072401</v>
+        <v>0.258415300343331</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04524179511072401</v>
+        <v>0.258415300343331</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>8.044136780184385</v>
+        <v>5.320904537985973</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.4428146220182363, 16.531088182387006]</t>
+          <t>[-3.5200198676590535, 14.161828943630999]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06264946840597752</v>
+        <v>0.2317670809567127</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06264946840597752</v>
+        <v>0.2317670809567127</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6666843268879239</v>
+        <v>-0.754736973835386</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.7359215301532736, 1.4025528763774258]</t>
+          <t>[-3.849158566560467, 2.339684618889695]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5196877951405137</v>
+        <v>0.6256408294446043</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5196877951405137</v>
+        <v>0.6256408294446043</v>
       </c>
       <c r="T3" t="n">
-        <v>11.44410537430068</v>
+        <v>14.13011239186586</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.920012971677361, 15.968197776924002]</t>
+          <t>[9.55370824285535, 18.706516540876375]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.7033404553829e-06</v>
+        <v>1.477272517647066e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>6.7033404553829e-06</v>
+        <v>1.477272517647066e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>2.373593593593601</v>
+        <v>2.71711711711713</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.993503503503518</v>
+        <v>-8.423063063063097</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.74069069069072</v>
+        <v>13.85729729729736</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.956298828388948</v>
+        <v>0.0506349787009861</v>
       </c>
       <c r="I4" t="n">
-        <v>0.956298828388948</v>
+        <v>0.0506349787009861</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.153510768461616</v>
+        <v>7.927040360378845</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-8.95281283526965, 11.25983437219288]</t>
+          <t>[-0.02174796539780033, 15.87582868615549]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.8192230947145362</v>
+        <v>0.05060371436334443</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8192230947145362</v>
+        <v>0.05060371436334443</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.371105502467618</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.509553418666431, 1.7673424137311953]</t>
+          <t>[-2.717053105807389, -0.0754736973835386]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.3835836652689377</v>
+        <v>0.03874446860657943</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3835836652689377</v>
+        <v>0.03874446860657943</v>
       </c>
       <c r="T4" t="n">
-        <v>14.70201182702933</v>
+        <v>14.16167439465498</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.328038552962795, 20.075985101095874]</t>
+          <t>[9.786855587653367, 18.536493201656587]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.655518096610464e-06</v>
+        <v>5.267329705738177e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.655518096610464e-06</v>
+        <v>5.267329705738177e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>4.881541541541555</v>
+        <v>5.026666666666689</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.29226226226228</v>
+        <v>0.2717117117117125</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.05534534534539</v>
+        <v>9.781621621621664</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5266388900433925</v>
+        <v>0.7846418797697239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5266388900433925</v>
+        <v>0.7846418797697239</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.215816107008294</v>
+        <v>2.357001162125802</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-5.656606248316251, 14.08823846233284]</t>
+          <t>[-6.16113317516773, 10.875135499419333]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.394303199946334</v>
+        <v>0.5800771814922996</v>
       </c>
       <c r="O5" t="n">
-        <v>0.394303199946334</v>
+        <v>0.5800771814922996</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2390000417145384</v>
+        <v>1.666710817219811</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.3774479579133505, 2.8994478744842738]</t>
+          <t>[-1.4654476241970391, 4.798869258636661]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8787854517996605</v>
+        <v>0.2895415006365103</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8787854517996605</v>
+        <v>0.2895415006365103</v>
       </c>
       <c r="T5" t="n">
-        <v>10.82100922722714</v>
+        <v>13.52960814346943</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.395478659688187, 16.2465397947661]</t>
+          <t>[8.832870957392004, 18.22634532954686]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.0002212071898275436</v>
+        <v>6.140158450573807e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0002212071898275436</v>
+        <v>6.140158450573807e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8509109109109119</v>
+        <v>16.61969969969977</v>
       </c>
       <c r="Y5" t="n">
-        <v>-10.32289289289292</v>
+        <v>5.343663663663685</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.02471471471474</v>
+        <v>27.89573573573585</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3726402776388995</v>
+        <v>0.03503585089831429</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3726402776388995</v>
+        <v>0.03503585089831429</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.995949031847521</v>
+        <v>7.707824831530122</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.027391103565314, 12.019289167260357]</t>
+          <t>[-0.30139941519245994, 15.717049078252703]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3211737526553413</v>
+        <v>0.05887402864394908</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3211737526553413</v>
+        <v>0.05887402864394908</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.6918422260157699</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.8240006674326206, 2.4403162154010807]</t>
+          <t>[-0.9434212172942322, 2.0881056276112337]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6585374292306385</v>
+        <v>0.4509151626829582</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6585374292306385</v>
+        <v>0.4509151626829582</v>
       </c>
       <c r="T6" t="n">
-        <v>12.24666353762885</v>
+        <v>13.45409552387514</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.17334375116212, 16.31998332409558]</t>
+          <t>[9.349958133281234, 17.558232914469045]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.582591389632682e-07</v>
+        <v>3.967235229218602e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.582591389632682e-07</v>
+        <v>3.967235229218602e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>2.46316316316317</v>
+        <v>20.55951951951961</v>
       </c>
       <c r="Y6" t="n">
-        <v>-8.68824824824827</v>
+        <v>15.10264264264271</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.61457457457461</v>
+        <v>26.01639639639651</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5932952457365619</v>
+        <v>0.1769795655090065</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5932952457365619</v>
+        <v>0.1769795655090065</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.361466643660664</v>
+        <v>6.314283738146024</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.831420823532013, 12.554354110853339]</t>
+          <t>[-2.7577886406382763, 15.386356116930324]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4652632792769271</v>
+        <v>0.1678224528409349</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4652632792769271</v>
+        <v>0.1678224528409349</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4717106086471166</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.666737307551696, 3.610158524845929]</t>
+          <t>[-2.654158357987773, 3.421474281387082]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7634974932218692</v>
+        <v>0.8003691774618764</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7634974932218692</v>
+        <v>0.8003691774618764</v>
       </c>
       <c r="T7" t="n">
-        <v>12.92204602119949</v>
+        <v>14.9333619141991</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.217231253755429, 17.626860788643555]</t>
+          <t>[10.122877003518703, 19.743846824879505]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.538087919694675e-06</v>
+        <v>1.31625123467316e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.538087919694675e-06</v>
+        <v>1.31625123467316e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>20.69057057057062</v>
+        <v>21.23879879879889</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.516766766766787</v>
+        <v>10.30240240240245</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.86437437437446</v>
+        <v>32.17519519519533</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5681121621195884</v>
+        <v>0.203768491381227</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5681121621195884</v>
+        <v>0.203768491381227</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.030769390330359</v>
+        <v>6.360179662590364</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.39067597910592, 10.452214759766637]</t>
+          <t>[-3.248423639578257, 15.968782964758987]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4151186594090941</v>
+        <v>0.1891808675573059</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4151186594090941</v>
+        <v>0.1891808675573059</v>
       </c>
       <c r="P8" t="n">
-        <v>1.276763380738195</v>
+        <v>0.5220264069028095</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.8616845354606184, 4.415211296937008]</t>
+          <t>[-2.5535267614763884, 3.5975795752820074]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.416896932078993</v>
+        <v>0.7340460810806304</v>
       </c>
       <c r="S8" t="n">
-        <v>0.416896932078993</v>
+        <v>0.7340460810806304</v>
       </c>
       <c r="T8" t="n">
-        <v>12.65872623077098</v>
+        <v>12.93739546963193</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.741705016009742, 16.575747445532212]</t>
+          <t>[7.906327965858038, 17.968462973405813]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.465966079754025e-08</v>
+        <v>5.052816923756254e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.465966079754025e-08</v>
+        <v>5.052816923756254e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>17.82434434434439</v>
+        <v>20.74066066066074</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.650540540540554</v>
+        <v>9.668408408408441</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.99814814814822</v>
+        <v>31.81291291291305</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3928830676738673</v>
+        <v>0.7051422665258222</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3928830676738673</v>
+        <v>0.7051422665258222</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.076206359003971</v>
+        <v>3.092530723721935</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.6994619970584672, 11.851874715066408]</t>
+          <t>[-6.984971012847667, 13.170032460291537]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.296674770129864</v>
+        <v>0.5396400587557189</v>
       </c>
       <c r="O9" t="n">
-        <v>0.296674770129864</v>
+        <v>0.5396400587557189</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.918316298830158</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.93097471938974, 0.09434212172942313]</t>
+          <t>[-0.8427896207828471, 5.434106211614778]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.05729623977791931</v>
+        <v>0.1476467897293976</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05729623977791931</v>
+        <v>0.1476467897293976</v>
       </c>
       <c r="T9" t="n">
-        <v>15.29655563320707</v>
+        <v>13.81989863834949</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.996594255363181, 19.596517011050956]</t>
+          <t>[8.54822899455398, 19.09156828214499]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.80601922095525e-09</v>
+        <v>3.601314294998659e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.80601922095525e-09</v>
+        <v>3.601314294998659e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>10.3900700700701</v>
+        <v>14.3554354354355</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.3358858858858866</v>
+        <v>3.056756756756768</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.11602602602608</v>
+        <v>25.65411411411422</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05612075169516695</v>
+        <v>0.6465905276051531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05612075169516695</v>
+        <v>0.6465905276051531</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>9.497858994757499</v>
+        <v>3.70192673852893</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.8454283537050884, 19.841146343220085]</t>
+          <t>[-6.120575117051131, 13.52442859410899]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07096343523624804</v>
+        <v>0.4517628006588927</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07096343523624804</v>
+        <v>0.4517628006588927</v>
       </c>
       <c r="P10" t="n">
-        <v>2.157289850212811</v>
+        <v>1.817658211986886</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.012578949563923025, 4.327158649989545]</t>
+          <t>[-1.3019212798660416, 4.9372377038398145]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.05128663032383773</v>
+        <v>0.2467533478745199</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05128663032383773</v>
+        <v>0.2467533478745199</v>
       </c>
       <c r="T10" t="n">
-        <v>17.62300923732918</v>
+        <v>15.82580028228045</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[12.174385765499837, 23.07163270915852]</t>
+          <t>[10.31388764380658, 21.337712920754328]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.366055466637931e-08</v>
+        <v>6.55127023296842e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>5.366055466637931e-08</v>
+        <v>6.55127023296842e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>14.68940940940945</v>
+        <v>16.07627627627635</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.964034034034054</v>
+        <v>4.845525525525549</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.41478478478484</v>
+        <v>27.30702702702715</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06352374880844414</v>
+        <v>0.3628206422094586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06352374880844414</v>
+        <v>0.3628206422094586</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.756413425623773</v>
+        <v>5.607164019937832</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.915443504330959, 16.428270355578505]</t>
+          <t>[-4.757056235698007, 15.971384275573671]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0783288540075795</v>
+        <v>0.2816667620011801</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0783288540075795</v>
+        <v>0.2816667620011801</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06923720326535</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 3.85544804134243]</t>
+          <t>[-1.1383949355350396, 5.100764048170815]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02416392116734678</v>
+        <v>0.2074122186176206</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02416392116734678</v>
+        <v>0.2074122186176206</v>
       </c>
       <c r="T11" t="n">
-        <v>11.46510325207394</v>
+        <v>16.27258251211958</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.938534198406556, 15.991672305741327]</t>
+          <t>[10.794757569904789, 21.750407454334365]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.558011761859106e-06</v>
+        <v>3.307439926381051e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>6.558011761859106e-06</v>
+        <v>3.307439926381051e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>15.56626626626639</v>
+        <v>15.7545945945947</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.968028028028098</v>
+        <v>4.330210210210243</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.16450450450469</v>
+        <v>27.17897897897916</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5152103684674175</v>
+        <v>0.1077629777844736</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5152103684674175</v>
+        <v>0.1077629777844736</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.730653801901108</v>
+        <v>6.477213212605566</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.863730028420072, 12.325037632222287]</t>
+          <t>[-1.4236000685286267, 14.378026493739759]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3866064704782737</v>
+        <v>0.1056617142010823</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3866064704782737</v>
+        <v>0.1056617142010823</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.47805306409285</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-5.603922030727739, 0.6478159025420398]</t>
+          <t>[-0.08176317216550011, 5.327185140321431]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1173335843243462</v>
+        <v>0.05702947020819904</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1173335843243462</v>
+        <v>0.05702947020819904</v>
       </c>
       <c r="T12" t="n">
-        <v>14.50999007857444</v>
+        <v>14.3021340317713</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.923743693258615, 19.09623646389026]</t>
+          <t>[9.985401100303458, 18.61886696323915]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.733224055035294e-08</v>
+        <v>3.116317448537131e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>8.733224055035294e-08</v>
+        <v>3.116317448537131e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>9.153893893893969</v>
+        <v>13.40522522522532</v>
       </c>
       <c r="Y12" t="n">
-        <v>-2.393023023023044</v>
+        <v>3.501021021021044</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.70081081081098</v>
+        <v>23.30942942942959</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09719035752224303</v>
+        <v>0.239187007930773</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09719035752224303</v>
+        <v>0.239187007930773</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.723938527136152</v>
+        <v>6.007859096924089</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.0076640875621177, 14.455541141834422]</t>
+          <t>[-3.5010189949573958, 15.516737188805575]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.08665525729075996</v>
+        <v>0.209716543532215</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08665525729075996</v>
+        <v>0.209716543532215</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.96863209708585</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-4.59131659083193, -1.3459476033397704]</t>
+          <t>[-0.48428955821104047, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0006125391124411905</v>
+        <v>0.09552586427299814</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0006125391124411905</v>
+        <v>0.09552586427299814</v>
       </c>
       <c r="T13" t="n">
-        <v>15.09105512669517</v>
+        <v>12.26657813660204</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.709459721745215, 19.472650531645133]</t>
+          <t>[7.224693496697579, 17.30846277650649]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.263806947982005e-08</v>
+        <v>1.281635317740282e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>1.263806947982005e-08</v>
+        <v>1.281635317740282e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>10.96608608608618</v>
+        <v>13.31309309309319</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.971911911911952</v>
+        <v>1.842642642642653</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.9602602602604</v>
+        <v>24.78354354354372</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09991698764856571</v>
+        <v>0.1252181253601431</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09991698764856571</v>
+        <v>0.1252181253601431</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.632325010914988</v>
+        <v>5.498566145759433</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.5514872899752774, 15.816137311805253]</t>
+          <t>[-1.6769768795660696, 12.674109171084936]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06681758440799901</v>
+        <v>0.129739444280808</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06681758440799901</v>
+        <v>0.129739444280808</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.081842643161159</v>
+        <v>-2.817684702318773</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.59131659083193, -1.5723686954903866]</t>
+          <t>[-4.717106086471162, -0.9182633181663848]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0001642662329797151</v>
+        <v>0.004537861679516197</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0001642662329797151</v>
+        <v>0.004537861679516197</v>
       </c>
       <c r="T14" t="n">
-        <v>12.3329610579174</v>
+        <v>11.75142351455216</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.3263276919529225, 17.339594423881884]</t>
+          <t>[7.948042809730682, 15.554804219373635]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.046000789917123e-05</v>
+        <v>1.455736715616496e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.046000789917123e-05</v>
+        <v>1.455736715616496e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>11.38428428428438</v>
+        <v>10.31879879879887</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.808308308308356</v>
+        <v>3.36282282282284</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.9602602602604</v>
+        <v>17.2747747747749</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.246958548859145</v>
+        <v>0.6289114102124211</v>
       </c>
       <c r="I15" t="n">
-        <v>0.246958548859145</v>
+        <v>0.6289114102124211</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.578709478629054</v>
+        <v>3.136733353761305</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.538211664019685, 14.695630621277793]</t>
+          <t>[-5.717127207559279, 11.990593915081888]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2241836676821087</v>
+        <v>0.4791877437768848</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2241836676821087</v>
+        <v>0.4791877437768848</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.188737224122619</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-5.327185140321432, 0.9497106920761942]</t>
+          <t>[-0.5912106295043857, 5.685685202893239]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1669980371806099</v>
+        <v>0.1090907107368142</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1669980371806099</v>
+        <v>0.1090907107368142</v>
       </c>
       <c r="T15" t="n">
-        <v>12.32980155221811</v>
+        <v>11.75753450013903</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.680921142361149, 16.978681962075065]</t>
+          <t>[7.0967918495699855, 16.418277150708068]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.924680352567322e-06</v>
+        <v>7.022857882788003e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.924680352567322e-06</v>
+        <v>7.022857882788003e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>8.085165165165233</v>
+        <v>13.68162162162172</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.508218218218248</v>
+        <v>2.188138138138152</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.67854854854871</v>
+        <v>25.17510510510528</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9066876388261753</v>
+        <v>0.3405914513260067</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9066876388261753</v>
+        <v>0.3405914513260067</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.40755129229073</v>
+        <v>4.644687258671542</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-7.17579891060185, 9.99090149518331]</t>
+          <t>[-3.967654989077495, 13.25702950642058]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.7427172578658141</v>
+        <v>0.2831670945195301</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7427172578658141</v>
+        <v>0.2831670945195301</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.100684577175157</v>
+        <v>-2.490632013656773</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.239132493373969, 1.0377633390236554]</t>
+          <t>[-5.597632555945777, 0.6163685286322318]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1843678697657716</v>
+        <v>0.1134004681979883</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1843678697657716</v>
+        <v>0.1134004681979883</v>
       </c>
       <c r="T16" t="n">
-        <v>11.73022044362991</v>
+        <v>13.74799747469834</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[7.247128710613335, 16.213312176646486]</t>
+          <t>[9.28179482418141, 18.21420012521527]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.725306999324829e-06</v>
+        <v>1.575892969452042e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>3.725306999324829e-06</v>
+        <v>1.575892969452042e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>7.759899899899962</v>
+        <v>9.121081081081142</v>
       </c>
       <c r="Y16" t="n">
-        <v>-3.833483483483514</v>
+        <v>-2.257237237237254</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.35328328328344</v>
+        <v>20.49939939939954</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001288893165489857</v>
+        <v>0.8592735945851597</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001288893165489857</v>
+        <v>0.8592735945851597</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>10.62953671254217</v>
+        <v>1.589024367894346</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[3.0605042577176746, 18.19856916736667]</t>
+          <t>[-6.066789151376604, 9.244837887165296]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.006959407192360434</v>
+        <v>0.6779038869595992</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006959407192360434</v>
+        <v>0.6779038869595992</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.465474114528927</v>
+        <v>-2.226474072814388</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-3.1070005422890055, -1.823947686768848]</t>
+          <t>[-5.3649219890132, 0.9119738433844242]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>8.247413862960684e-10</v>
+        <v>0.159954486883519</v>
       </c>
       <c r="S17" t="n">
-        <v>8.247413862960684e-10</v>
+        <v>0.159954486883519</v>
       </c>
       <c r="T17" t="n">
-        <v>15.8264628882833</v>
+        <v>13.18184472539051</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[11.97470035214451, 19.678225424422084]</t>
+          <t>[9.116113670478711, 17.247575780302302]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.372923996711961e-10</v>
+        <v>5.085400878179769e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.372923996711961e-10</v>
+        <v>5.085400878179769e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>9.107427427427501</v>
+        <v>8.15369369369375</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.737637637637689</v>
+        <v>-3.339789789789812</v>
       </c>
       <c r="Z17" t="n">
-        <v>11.47721721721731</v>
+        <v>19.64717717717731</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_2_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_2_sawtooth_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2148609219202342</v>
+        <v>0.02459960533667904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2148609219202342</v>
+        <v>0.02459960533667904</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.409153644773141</v>
+        <v>10.16503162462574</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.1775345670923985, 15.99584185663868]</t>
+          <t>[1.213939369582615, 19.116123879668862]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1848772208142804</v>
+        <v>0.0269354507938846</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1848772208142804</v>
+        <v>0.0269354507938846</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.10702703262089, 2.1195530015210418]</t>
+          <t>[-2.553526761476389, -0.16352634433100066]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5235608107259564</v>
+        <v>0.02678009203213771</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5235608107259564</v>
+        <v>0.02678009203213771</v>
       </c>
       <c r="T2" t="n">
-        <v>15.41130532158703</v>
+        <v>14.3558808622217</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.314964314850542, 20.507646328323517]</t>
+          <t>[9.363264936681741, 19.348496787761658]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.290247180791738e-07</v>
+        <v>6.364075415543624e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.290247180791738e-07</v>
+        <v>6.364075415543624e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>3.577537537537552</v>
+        <v>4.854054054054071</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.630570570570603</v>
+        <v>0.5842842842842879</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.78564564564571</v>
+        <v>9.123823823823855</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.258415300343331</v>
+        <v>0.1385385833745334</v>
       </c>
       <c r="I3" t="n">
-        <v>0.258415300343331</v>
+        <v>0.1385385833745334</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.320904537985973</v>
+        <v>5.912322002168434</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.5200198676590535, 14.161828943630999]</t>
+          <t>[-2.216127732309328, 14.040771736646196]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2317670809567127</v>
+        <v>0.1498782568929977</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2317670809567127</v>
+        <v>0.1498782568929977</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.754736973835386</v>
+        <v>-0.6289474781961548</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.849158566560467, 2.339684618889695]</t>
+          <t>[-3.6982111717933903, 2.4403162154010807]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6256408294446043</v>
+        <v>0.6817671968125825</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6256408294446043</v>
+        <v>0.6817671968125825</v>
       </c>
       <c r="T3" t="n">
-        <v>14.13011239186586</v>
+        <v>14.74816814323272</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.55370824285535, 18.706516540876375]</t>
+          <t>[10.530198343511067, 18.966137942954376]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.477272517647066e-07</v>
+        <v>8.818940910870765e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.477272517647066e-07</v>
+        <v>8.818940910870765e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>2.71711711711713</v>
+        <v>2.247247247247255</v>
       </c>
       <c r="Y3" t="n">
-        <v>-8.423063063063097</v>
+        <v>-8.719319319319347</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.85729729729736</v>
+        <v>13.21381381381386</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0506349787009861</v>
+        <v>0.6173739431190826</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0506349787009861</v>
+        <v>0.6173739431190826</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.927040360378845</v>
+        <v>3.176318874458695</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.02174796539780033, 15.87582868615549]</t>
+          <t>[-5.676300032274983, 12.028937781192372]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05060371436334443</v>
+        <v>0.4736279694382131</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05060371436334443</v>
+        <v>0.4736279694382131</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.396263401595464</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.717053105807389, -0.0754736973835386]</t>
+          <t>[-3.5095269283345436, 2.7547899544991585]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.03874446860657943</v>
+        <v>0.8093690821648196</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03874446860657943</v>
+        <v>0.8093690821648196</v>
       </c>
       <c r="T4" t="n">
-        <v>14.16167439465498</v>
+        <v>14.84343670448316</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.786855587653367, 18.536493201656587]</t>
+          <t>[10.134446784458213, 19.552426624508108]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.267329705738177e-08</v>
+        <v>9.464559669325467e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.267329705738177e-08</v>
+        <v>9.464559669325467e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>5.026666666666689</v>
+        <v>1.348348348348352</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2717117117117125</v>
+        <v>-9.842942942942976</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.781621621621664</v>
+        <v>12.53963963963968</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7846418797697239</v>
+        <v>0.3534243695228287</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7846418797697239</v>
+        <v>0.3534243695228287</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2.357001162125802</v>
+        <v>4.935242834881894</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.16113317516773, 10.875135499419333]</t>
+          <t>[-4.454645720321892, 14.32513139008568]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5800771814922996</v>
+        <v>0.2954337367179714</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5800771814922996</v>
+        <v>0.2954337367179714</v>
       </c>
       <c r="P5" t="n">
-        <v>1.666710817219811</v>
+        <v>-0.792473822527155</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.4654476241970391, 4.798869258636661]</t>
+          <t>[-3.924632263944006, 2.339684618889696]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2895415006365103</v>
+        <v>0.612827192125236</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2895415006365103</v>
+        <v>0.612827192125236</v>
       </c>
       <c r="T5" t="n">
-        <v>13.52960814346943</v>
+        <v>15.07947917101856</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.832870957392004, 18.22634532954686]</t>
+          <t>[10.214741647357334, 19.94421669467979]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.140158450573807e-07</v>
+        <v>1.358531827033715e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>6.140158450573807e-07</v>
+        <v>1.358531827033715e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>16.61969969969977</v>
+        <v>2.831531531531539</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.343663663663685</v>
+        <v>-8.35975975975979</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.89573573573585</v>
+        <v>14.02282282282287</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03503585089831429</v>
+        <v>0.3510132271132328</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03503585089831429</v>
+        <v>0.3510132271132328</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.707824831530122</v>
+        <v>5.086117639791073</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.30139941519245994, 15.717049078252703]</t>
+          <t>[-3.8260948266619863, 13.998330106244133]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05887402864394908</v>
+        <v>0.2564511761104902</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05887402864394908</v>
+        <v>0.2564511761104902</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5723422051585008</v>
+        <v>-0.03773684869176908</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9434212172942322, 2.0881056276112337]</t>
+          <t>[-3.176184764890581, 3.100711067507043]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.4509151626829582</v>
+        <v>0.9807860532191672</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4509151626829582</v>
+        <v>0.9807860532191672</v>
       </c>
       <c r="T6" t="n">
-        <v>13.45409552387514</v>
+        <v>12.17593915834496</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.349958133281234, 17.558232914469045]</t>
+          <t>[7.085941594596328, 17.2659367220936]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.967235229218602e-08</v>
+        <v>1.68199831340754e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.967235229218602e-08</v>
+        <v>1.68199831340754e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55951951951961</v>
+        <v>0.1348348348348374</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.10264264264271</v>
+        <v>-11.07892892892896</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.01639639639651</v>
+        <v>11.34859859859863</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1769795655090065</v>
+        <v>0.2700073869374542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1769795655090065</v>
+        <v>0.2700073869374542</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.314283738146024</v>
+        <v>6.513259159420316</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.7577886406382763, 15.386356116930324]</t>
+          <t>[-4.218619202184519, 17.24513752102515]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1678224528409349</v>
+        <v>0.2279299878948711</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1678224528409349</v>
+        <v>0.2279299878948711</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3836579616996545</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.654158357987773, 3.421474281387082]</t>
+          <t>[-2.1069740519571187, 4.132184931748737]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.8003691774618764</v>
+        <v>0.5165861448900468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8003691774618764</v>
+        <v>0.5165861448900468</v>
       </c>
       <c r="T7" t="n">
-        <v>14.9333619141991</v>
+        <v>16.04075223567066</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.122877003518703, 19.743846824879505]</t>
+          <t>[10.501830190175447, 21.57967428116588]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.31625123467316e-07</v>
+        <v>5.525194772815212e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.31625123467316e-07</v>
+        <v>5.525194772815212e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>21.23879879879889</v>
+        <v>18.83193193193199</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.30240240240245</v>
+        <v>7.685585585585606</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.17519519519533</v>
+        <v>29.97827827827837</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.203768491381227</v>
+        <v>0.3654759950314143</v>
       </c>
       <c r="I8" t="n">
-        <v>0.203768491381227</v>
+        <v>0.3654759950314143</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.360179662590364</v>
+        <v>6.386534775376164</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.248423639578257, 15.968782964758987]</t>
+          <t>[-5.595088835127683, 18.36815838588001]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1891808675573059</v>
+        <v>0.2887376719065893</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1891808675573059</v>
+        <v>0.2887376719065893</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5220264069028095</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.5535267614763884, 3.5975795752820074]</t>
+          <t>[-2.3396846188896956, 3.8868954152522357]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7340460810806304</v>
+        <v>0.6191802321657351</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7340460810806304</v>
+        <v>0.6191802321657351</v>
       </c>
       <c r="T8" t="n">
-        <v>12.93739546963193</v>
+        <v>18.75315517859271</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.906327965858038, 17.968462973405813]</t>
+          <t>[12.463385103993112, 25.042925253192315]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.052816923756254e-06</v>
+        <v>3.068262954819545e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>5.052816923756254e-06</v>
+        <v>3.068262954819545e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>20.74066066066074</v>
+        <v>19.68588588588595</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.668408408408441</v>
+        <v>8.56201201201204</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.81291291291305</v>
+        <v>30.80975975975986</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7051422665258222</v>
+        <v>0.6196944285922916</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7051422665258222</v>
+        <v>0.6196944285922916</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.092530723721935</v>
+        <v>3.286849234573966</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-6.984971012847667, 13.170032460291537]</t>
+          <t>[-5.786113964751358, 12.35981243389929]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.5396400587557189</v>
+        <v>0.4693876094868259</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5396400587557189</v>
+        <v>0.4693876094868259</v>
       </c>
       <c r="P9" t="n">
-        <v>2.295658295415965</v>
+        <v>2.006342455445733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 5.434106211614778]</t>
+          <t>[-1.1258159859711192, 5.138500896862585]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.2035861298571222</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1476467897293976</v>
+        <v>0.2035861298571222</v>
       </c>
       <c r="T9" t="n">
-        <v>13.81989863834949</v>
+        <v>13.11605751874323</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.54822899455398, 19.09156828214499]</t>
+          <t>[8.408885797380897, 17.823229240105565]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.601314294998659e-06</v>
+        <v>1.171428373192285e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.601314294998659e-06</v>
+        <v>1.171428373192285e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>14.3554354354355</v>
+        <v>15.28128128128133</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.056756756756768</v>
+        <v>4.089989989990004</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.65411411411422</v>
+        <v>26.47257257257267</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6465905276051531</v>
+        <v>0.07768717255156554</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6465905276051531</v>
+        <v>0.07768717255156554</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.70192673852893</v>
+        <v>8.385371934424182</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-6.120575117051131, 13.52442859410899]</t>
+          <t>[-1.3978468965174997, 18.168590765365863]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.4517628006588927</v>
+        <v>0.09114970065323735</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4517628006588927</v>
+        <v>0.09114970065323735</v>
       </c>
       <c r="P10" t="n">
-        <v>1.817658211986886</v>
+        <v>2.006342455445733</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3019212798660416, 4.9372377038398145]</t>
+          <t>[0.08176317216550011, 3.9309217387259654]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2467533478745199</v>
+        <v>0.04139678789618717</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2467533478745199</v>
+        <v>0.04139678789618717</v>
       </c>
       <c r="T10" t="n">
-        <v>15.82580028228045</v>
+        <v>15.08757541809945</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.31388764380658, 21.337712920754328]</t>
+          <t>[10.011143798549789, 20.164007037649114]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.55127023296842e-07</v>
+        <v>3.274494373428638e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>6.55127023296842e-07</v>
+        <v>3.274494373428638e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>16.07627627627635</v>
+        <v>15.28128128128133</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.845525525525549</v>
+        <v>8.40470470470474</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.30702702702715</v>
+        <v>22.15785785785793</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3628206422094586</v>
+        <v>0.4225431328189465</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3628206422094586</v>
+        <v>0.4225431328189465</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.607164019937832</v>
+        <v>4.156498385106132</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.757056235698007, 15.971384275573671]</t>
+          <t>[-4.543107274246453, 12.856104044458718]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2816667620011801</v>
+        <v>0.3410423666289086</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2816667620011801</v>
+        <v>0.3410423666289086</v>
       </c>
       <c r="P11" t="n">
-        <v>1.981184556317888</v>
+        <v>2.434026740619119</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.1383949355350396, 5.100764048170815]</t>
+          <t>[-0.6918422260157708, 5.559895707254009]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2074122186176206</v>
+        <v>0.1238109028574392</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2074122186176206</v>
+        <v>0.1238109028574392</v>
       </c>
       <c r="T11" t="n">
-        <v>16.27258251211958</v>
+        <v>13.94658005124588</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.794757569904789, 21.750407454334365]</t>
+          <t>[9.465929961894677, 18.42723014059708]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.307439926381051e-07</v>
+        <v>1.243117584426301e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>3.307439926381051e-07</v>
+        <v>1.243117584426301e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>15.7545945945947</v>
+        <v>14.28000000000013</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.330210210210243</v>
+        <v>2.683333333333353</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.17897897897916</v>
+        <v>25.8766666666669</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1077629777844736</v>
+        <v>0.2006102435706894</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1077629777844736</v>
+        <v>0.2006102435706894</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.477213212605566</v>
+        <v>5.364132046722055</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.4236000685286267, 14.378026493739759]</t>
+          <t>[-2.7564671643369962, 13.484731257781107]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1056617142010823</v>
+        <v>0.1900786656709579</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1056617142010823</v>
+        <v>0.1900786656709579</v>
       </c>
       <c r="P12" t="n">
-        <v>2.622710984077965</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.08176317216550011, 5.327185140321431]</t>
+          <t>[-0.5849211547224238, 5.6793957281112775]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.05702947020819904</v>
+        <v>0.1084014338440458</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05702947020819904</v>
+        <v>0.1084014338440458</v>
       </c>
       <c r="T12" t="n">
-        <v>14.3021340317713</v>
+        <v>11.10904423523387</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.985401100303458, 18.61886696323915]</t>
+          <t>[6.902077540547463, 15.316010929920285]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.116317448537131e-08</v>
+        <v>3.163900027747246e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.116317448537131e-08</v>
+        <v>3.163900027747246e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.40522522522532</v>
+        <v>13.86000000000012</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.501021021021044</v>
+        <v>2.240000000000022</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.30942942942959</v>
+        <v>25.48000000000022</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.239187007930773</v>
+        <v>0.3544099707680629</v>
       </c>
       <c r="I13" t="n">
-        <v>0.239187007930773</v>
+        <v>0.3544099707680629</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.007859096924089</v>
+        <v>4.727305339342433</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.5010189949573958, 15.516737188805575]</t>
+          <t>[-3.6514597342264086, 13.106070412911274]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.209716543532215</v>
+        <v>0.2618220591141267</v>
       </c>
       <c r="O13" t="n">
-        <v>0.209716543532215</v>
+        <v>0.2618220591141267</v>
       </c>
       <c r="P13" t="n">
-        <v>2.647868883205811</v>
+        <v>-2.805105752754851</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.48428955821104047, 5.7800273246226626]</t>
+          <t>[-5.855501022006202, 0.24528951649650033]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.09552586427299814</v>
+        <v>0.07057182173803001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.09552586427299814</v>
+        <v>0.07057182173803001</v>
       </c>
       <c r="T13" t="n">
-        <v>12.26657813660204</v>
+        <v>12.00187788600676</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.224693496697579, 17.30846277650649]</t>
+          <t>[7.33313463907254, 16.670621132940973]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.281635317740282e-05</v>
+        <v>5.080677411450907e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.281635317740282e-05</v>
+        <v>5.080677411450907e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>13.31309309309319</v>
+        <v>10.40666666666676</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.842642642642653</v>
+        <v>-0.910000000000009</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.78354354354372</v>
+        <v>21.72333333333353</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1252181253601431</v>
+        <v>0.8150768921628314</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1252181253601431</v>
+        <v>0.8150768921628314</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.498566145759433</v>
+        <v>2.05279438300638</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.6769768795660696, 12.674109171084936]</t>
+          <t>[-6.695073265399315, 10.800662031412074]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.129739444280808</v>
+        <v>0.6387586256288282</v>
       </c>
       <c r="O14" t="n">
-        <v>0.129739444280808</v>
+        <v>0.6387586256288282</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.817684702318773</v>
+        <v>-2.591263610168158</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.717106086471162, -0.9182633181663848]</t>
+          <t>[-5.7234220515850085, 0.5408948312486928]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.004537861679516197</v>
+        <v>0.1026033549281486</v>
       </c>
       <c r="S14" t="n">
-        <v>0.004537861679516197</v>
+        <v>0.1026033549281486</v>
       </c>
       <c r="T14" t="n">
-        <v>11.75142351455216</v>
+        <v>12.29935087449836</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.948042809730682, 15.554804219373635]</t>
+          <t>[7.714442967025576, 16.884258781971134]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.455736715616496e-07</v>
+        <v>2.379134996566279e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.455736715616496e-07</v>
+        <v>2.379134996566279e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>10.31879879879887</v>
+        <v>9.613333333333419</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.36282282282284</v>
+        <v>-2.006666666666682</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.2747747747749</v>
+        <v>21.23333333333352</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6289114102124211</v>
+        <v>0.1013427436161202</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6289114102124211</v>
+        <v>0.1013427436161202</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>3.136733353761305</v>
+        <v>7.733714976609457</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-5.717127207559279, 11.990593915081888]</t>
+          <t>[-1.7685222264742322, 17.235952179693147]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.4791877437768848</v>
+        <v>0.1081356987356905</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4791877437768848</v>
+        <v>0.1081356987356905</v>
       </c>
       <c r="P15" t="n">
-        <v>2.547237286694427</v>
+        <v>-2.075526678047311</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, 5.685685202893239]</t>
+          <t>[-4.8617640064562755, 0.710710650361654]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1090907107368142</v>
+        <v>0.1405084759761286</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1090907107368142</v>
+        <v>0.1405084759761286</v>
       </c>
       <c r="T15" t="n">
-        <v>11.75753450013903</v>
+        <v>14.95645037185785</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.0967918495699855, 16.418277150708068]</t>
+          <t>[9.983766425399711, 19.92913431831599]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.022857882788003e-06</v>
+        <v>2.561932059830241e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>7.022857882788003e-06</v>
+        <v>2.561932059830241e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>13.68162162162172</v>
+        <v>7.700000000000069</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.188138138138152</v>
+        <v>-2.636666666666684</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.17510510510528</v>
+        <v>18.03666666666682</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3405914513260067</v>
+        <v>0.3300247229450849</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3405914513260067</v>
+        <v>0.3300247229450849</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.644687258671542</v>
+        <v>5.552358671366391</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-3.967654989077495, 13.25702950642058]</t>
+          <t>[-4.215845542093459, 15.320562884826241]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2831670945195301</v>
+        <v>0.2583284175027529</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2831670945195301</v>
+        <v>0.2583284175027529</v>
       </c>
       <c r="P16" t="n">
-        <v>-2.490632013656773</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-5.597632555945777, 0.6163685286322318]</t>
+          <t>[-5.213974594246123, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.1134004681979883</v>
+        <v>0.1852248142328432</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1134004681979883</v>
+        <v>0.1852248142328432</v>
       </c>
       <c r="T16" t="n">
-        <v>13.74799747469834</v>
+        <v>14.67902770793021</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[9.28179482418141, 18.21420012521527]</t>
+          <t>[9.479673536493692, 19.878381879366735]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.575892969452042e-07</v>
+        <v>9.102632274604616e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>1.575892969452042e-07</v>
+        <v>9.102632274604616e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>9.121081081081142</v>
+        <v>7.746666666666735</v>
       </c>
       <c r="Y16" t="n">
-        <v>-2.257237237237254</v>
+        <v>-3.850000000000032</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.49939939939954</v>
+        <v>19.3433333333335</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8592735945851597</v>
+        <v>0.1307780653112656</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8592735945851597</v>
+        <v>0.1307780653112656</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.589024367894346</v>
+        <v>5.290122745788665</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-6.066789151376604, 9.244837887165296]</t>
+          <t>[-1.2644445700963072, 11.844690061673637]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.6779038869595992</v>
+        <v>0.1110270092784418</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6779038869595992</v>
+        <v>0.1110270092784418</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.226474072814388</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-5.3649219890132, 0.9119738433844242]</t>
+          <t>[-4.66679028821547, -1.4214213007233094]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.159954486883519</v>
+        <v>0.0004613458620166266</v>
       </c>
       <c r="S17" t="n">
-        <v>0.159954486883519</v>
+        <v>0.0004613458620166266</v>
       </c>
       <c r="T17" t="n">
-        <v>13.18184472539051</v>
+        <v>9.23426471072697</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[9.116113670478711, 17.247575780302302]</t>
+          <t>[5.53539708900378, 12.93313233245016]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.085400878179769e-08</v>
+        <v>8.373250958593204e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>5.085400878179769e-08</v>
+        <v>8.373250958593204e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>8.15369369369375</v>
+        <v>11.29333333333343</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.339789789789812</v>
+        <v>5.273333333333377</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.64717717717731</v>
+        <v>17.31333333333349</v>
       </c>
     </row>
   </sheetData>
